--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1643025.691102501</v>
+        <v>1640773.611391293</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>204.0005215907897</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>194.5727296124804</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734071385</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>60.74247635995977</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>196.9899243971805</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>393.849836222983</v>
+        <v>373.3597042619263</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1063,7 +1063,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>45.10683729225568</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>127.5061315297046</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>388.1603707539135</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>15.35878584647173</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,22 +1294,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>30.5168196566876</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>68.77328890971033</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.2658363185655</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>75.9293632965058</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>175.9309480000776</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072263</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,10 +1822,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>43.34824157861032</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>13.37642554686418</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>93.72099019930747</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>12.96996784159794</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,19 +2056,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336592</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986288</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>87.73390848162555</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,13 +2293,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>105.1162657551309</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>103.780257294551</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>41.02686156550228</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>28.23631843387898</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,10 +2767,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>247.2924896597629</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>9.146142788179411</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>81.1139899822969</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>108.9501037550996</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892427719</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>56.04917322725592</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>45.89043756183533</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>79.7516722569854</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>40.15381658332819</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3018.777042416588</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>2765.246565690425</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V2" t="n">
-        <v>2434.183678346854</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W2" t="n">
-        <v>2434.183678346854</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X2" t="n">
-        <v>2434.183678346854</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>2182.266054653543</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686085</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.071687106476</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080139</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.8377936138381</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C4" t="n">
-        <v>163.8377936138381</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1776.108054118788</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251691</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271517</v>
+        <v>1326.351887790296</v>
       </c>
       <c r="Y4" t="n">
-        <v>163.8377936138381</v>
+        <v>1105.559308646766</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.299101484277</v>
+        <v>1605.601998493311</v>
       </c>
       <c r="C5" t="n">
-        <v>1257.336584543865</v>
+        <v>1236.639481552899</v>
       </c>
       <c r="D5" t="n">
-        <v>899.070885937115</v>
+        <v>878.3737829461486</v>
       </c>
       <c r="E5" t="n">
-        <v>513.2826333388707</v>
+        <v>492.5855303479044</v>
       </c>
       <c r="F5" t="n">
-        <v>506.3371325896672</v>
+        <v>485.6400295987009</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4562,10 +4562,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810557</v>
@@ -4583,10 +4583,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524211</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.038273524211</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y5" t="n">
-        <v>2012.898941548399</v>
+        <v>1992.201838557432</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.4780323548192</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269123</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335303</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W7" t="n">
-        <v>1071.910120335303</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X7" t="n">
-        <v>843.9205694372858</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>715.126497185059</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1624.638712032431</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1255.676195092019</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>897.4104964852691</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>511.6222438870248</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3310.091896511724</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.114148895947</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>3104.114148895947</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269323</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008243</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.638712032431</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,16 +4884,16 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>629.1078027362229</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C10" t="n">
-        <v>460.171619808316</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1896.469477728202</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1704.783593555029</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1704.783593555029</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1704.783593555029</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1450.099105349142</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>1160.681935312181</v>
       </c>
       <c r="X10" t="n">
-        <v>810.7562675664626</v>
+        <v>932.6923844141637</v>
       </c>
       <c r="Y10" t="n">
-        <v>810.7562675664626</v>
+        <v>711.8998052706336</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5081,10 +5081,10 @@
         <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516146</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>739.5354516872154</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.913939313768</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.8386896933887</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9025067654818</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851784</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2303.221053270537</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>2083.619588293478</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1794.544361637675</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1539.859873431788</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1250.442703394828</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806535</v>
+        <v>1022.45315249681</v>
       </c>
       <c r="Y13" t="n">
-        <v>988.4871545236284</v>
+        <v>801.6605733532803</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637308</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890283</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.11872044489</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>724.7519863413023</v>
+        <v>789.7592298206044</v>
       </c>
       <c r="C16" t="n">
-        <v>555.8158034133954</v>
+        <v>620.8230468926976</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>470.7064074803618</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5470,16 +5470,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1355.182581213089</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X16" t="n">
-        <v>1127.193030315072</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y16" t="n">
-        <v>906.400451171542</v>
+        <v>971.4076946508442</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,13 +5501,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,46 +5516,46 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2433.862105962485</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2251.007271617389</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T19" t="n">
-        <v>2031.40580664033</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U19" t="n">
-        <v>1742.330579984528</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="V19" t="n">
-        <v>1487.646091778641</v>
+        <v>1789.82229605222</v>
       </c>
       <c r="W19" t="n">
-        <v>1198.22892174168</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X19" t="n">
-        <v>1198.22892174168</v>
+        <v>1272.415575117242</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>1051.622995973712</v>
       </c>
     </row>
     <row r="20">
@@ -5738,25 +5738,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.9745311434712</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C22" t="n">
-        <v>701.0383482155632</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D22" t="n">
-        <v>701.0383482155632</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>553.1252546331701</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>406.2353071352597</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.822296052219</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.405126015258</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.415575117241</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.622995973711</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5975,16 +5975,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6069,19 +6069,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>594.8179559048574</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6218,28 +6218,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6309,19 +6309,19 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>542.9134462654469</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2418.441549808666</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2235.58671546357</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2015.985250486511</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>1726.910023830708</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1472.225535624822</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>726.955532171245</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>558.0193492433381</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6661,10 +6661,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1129.396576145015</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.6039970014847</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,34 +6713,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782976</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038364</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797765</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1323.650755795185</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1095.661204897168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>710.248605371872</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270397</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R37" t="n">
-        <v>2390.347757088083</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S37" t="n">
-        <v>2207.492922742988</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T37" t="n">
-        <v>1987.891457765928</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U37" t="n">
-        <v>1698.816231110126</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V37" t="n">
-        <v>1444.131742904239</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W37" t="n">
-        <v>1154.714572867279</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X37" t="n">
-        <v>926.7250219692613</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y37" t="n">
-        <v>705.9324428257312</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7187,37 +7187,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>808.8888553856866</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.329899359456</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>990.5373202159263</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,22 +7491,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>870.3164745246301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>701.3802915967232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>551.2636521843874</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>403.3505586019943</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>256.4606111040839</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>256.4606111040839</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.7575184984</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.96493935487</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7731,22 +7731,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>449.4852666057155</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>301.5721730233224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>301.5721730233224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>134.3760737382024</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>134.3760737382024</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7840,16 +7840,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.738725912720952e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>105.0969227051388</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>42.65370535201723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>208.7894017452177</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>273.1465727897268</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>86.11098998262983</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>53.40527886852374</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>77.7902298106433</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>181.4067325814601</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>42.65370535201815</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>139.9994244361423</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>38.13892827624271</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>4.845153664065066</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24683,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>144.5956654067402</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>177.5728945814914</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219467</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>10.32607348286574</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>121.3563835367925</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>60.54304058923846</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>41.11201973523735</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>898230.3070642162</v>
+        <v>898230.3070642164</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642161</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="G2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="I2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="I2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
         <v>524645.289798504</v>
@@ -26344,13 +26344,13 @@
         <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="N2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="O2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="N2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.2897985036</v>
       </c>
       <c r="P2" t="n">
         <v>524645.289798504</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.539624622135307e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>90354.06702314492</v>
+      </c>
+      <c r="C4" t="n">
         <v>90354.06702314482</v>
       </c>
-      <c r="C4" t="n">
-        <v>90354.06702314479</v>
-      </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26430,7 +26430,7 @@
         <v>11167.03225179352</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
@@ -26451,7 +26451,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
@@ -26479,10 +26479,10 @@
         <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-993355.6029003463</v>
+        <v>-993355.602900346</v>
       </c>
       <c r="C6" t="n">
-        <v>335389.1428272463</v>
+        <v>335389.1428272458</v>
       </c>
       <c r="D6" t="n">
-        <v>335389.1428272465</v>
+        <v>335389.142827246</v>
       </c>
       <c r="E6" t="n">
-        <v>86943.26591544767</v>
+        <v>86908.52799001192</v>
       </c>
       <c r="F6" t="n">
-        <v>412355.7277228032</v>
+        <v>412320.9897973673</v>
       </c>
       <c r="G6" t="n">
-        <v>412355.7277228037</v>
+        <v>412320.9897973674</v>
       </c>
       <c r="H6" t="n">
-        <v>412355.7277228033</v>
+        <v>412320.9897973676</v>
       </c>
       <c r="I6" t="n">
-        <v>412355.7277228032</v>
+        <v>412320.9897973679</v>
       </c>
       <c r="J6" t="n">
-        <v>194824.5253255257</v>
+        <v>194789.7874000902</v>
       </c>
       <c r="K6" t="n">
-        <v>412355.7277228033</v>
+        <v>412320.9897973677</v>
       </c>
       <c r="L6" t="n">
-        <v>412355.7277228032</v>
+        <v>412320.9897973676</v>
       </c>
       <c r="M6" t="n">
-        <v>327300.6997872913</v>
+        <v>327265.9618618558</v>
       </c>
       <c r="N6" t="n">
-        <v>412355.7277228032</v>
+        <v>412320.9897973677</v>
       </c>
       <c r="O6" t="n">
-        <v>412355.727722803</v>
+        <v>412320.9897973675</v>
       </c>
       <c r="P6" t="n">
-        <v>412355.7277228034</v>
+        <v>412320.9897973676</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26817,13 +26817,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26960,10 +26960,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483759</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>341.3068326973562</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.306832697356</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>161.2723701802178</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>9.345240527139708</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>129.0265489714822</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.5947289549143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>17.07188943047043</v>
+        <v>37.56202139152714</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>174.4421119839135</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>91.07852182239017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>18.71567498779791</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>93.8289759417041</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>58.41533301335973</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>156.9363664793268</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28782,7 +28782,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.220737668510449e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29928,7 +29928,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-3.044307409159484e-12</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31844,10 +31844,10 @@
         <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>300.5543663814911</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>446.0127311990634</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071787</v>
@@ -31862,7 +31862,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.6544928674244</v>
@@ -32078,7 +32078,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473074</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>616.3752871594845</v>
+        <v>551.7051287319844</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.6544928674244</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319844</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319844</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32728,7 +32728,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32789,10 +32789,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33029,7 +33029,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>254.8897444730604</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>502.2268148619681</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>422.1299181110988</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>547.6926421044561</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34451,7 +34451,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>430.1367711736326</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754089</v>
@@ -35492,10 +35492,10 @@
         <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>161.999986601617</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>303.878697277045</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238455</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674332</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>473.77904271504</v>
+        <v>409.1088842875399</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>439.1903400640646</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875399</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>235.5010321525773</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875399</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36437,10 +36437,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>116.3353646931863</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>55.9645526312509</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>359.6305704175236</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295531</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>283.5755383312247</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191269</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>405.5586081824378</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38099,7 +38099,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>291.5823913937584</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
